--- a/biology/Botanique/Alphonse_Mas/Alphonse_Mas.xlsx
+++ b/biology/Botanique/Alphonse_Mas/Alphonse_Mas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alphonse Mas (né le 28 février 1817 à Lyon et mort le 15 novembre 1875 à Bourg-en-Bresse) a été président de la Société d’horticulture de l’Ain puis nommé à sa création en 1872 à l'occasion du Congrès pomologique de Lyon président de la Société pomologique de France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alphonse Mas (né le 28 février 1817 à Lyon et mort le 15 novembre 1875 à Bourg-en-Bresse) a été président de la Société d’horticulture de l’Ain puis nommé à sa création en 1872 à l'occasion du Congrès pomologique de Lyon président de la Société pomologique de France.
 Il a consacré sa vie à l'étude des fruits.
 Il est mort pendant la publication de son ouvrage effectuée en collaboration avec Victor Pulliat sur le vignoble.
 </t>
@@ -513,7 +525,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le verger de 1865 à 1880, Huit volumes illustrés de planches couleurs en chromolithographie
 La pomologie générale de 1872 à 1883 Douze volumes illustrés de dessins en contours
